--- a/FROTA AGREGADOS.XLSX
+++ b/FROTA AGREGADOS.XLSX
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Documents\Arquivos\Github\073\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E788CD-FB6C-4198-B5D9-12B726762201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B69F8B9-E1FF-4E7D-A8E9-3C0B1D73046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="365">
   <si>
     <t>PLACA</t>
   </si>
@@ -392,9 +392,6 @@
     <t>MARIA</t>
   </si>
   <si>
-    <t>41-996611805</t>
-  </si>
-  <si>
     <t>ATJ8452</t>
   </si>
   <si>
@@ -464,18 +461,12 @@
     <t>UBIRATAN</t>
   </si>
   <si>
-    <t>TADEU</t>
-  </si>
-  <si>
     <t>THIAGO</t>
   </si>
   <si>
     <t>RONALDO COSTA</t>
   </si>
   <si>
-    <t>JAMIL/RONALDO</t>
-  </si>
-  <si>
     <t>FGU4I29</t>
   </si>
   <si>
@@ -614,9 +605,6 @@
     <t>DOUGLAS</t>
   </si>
   <si>
-    <t>41-995957098</t>
-  </si>
-  <si>
     <t>MURILO</t>
   </si>
   <si>
@@ -653,27 +641,12 @@
     <t>JAS2E67</t>
   </si>
   <si>
-    <t>IQA3A06</t>
-  </si>
-  <si>
     <t>PRAÇA</t>
   </si>
   <si>
     <t>SIMPLES</t>
   </si>
   <si>
-    <t>NILSON</t>
-  </si>
-  <si>
-    <t>MHL0E39</t>
-  </si>
-  <si>
-    <t>ALEFER</t>
-  </si>
-  <si>
-    <t>AMU5I35</t>
-  </si>
-  <si>
     <t>AHX9445</t>
   </si>
   <si>
@@ -686,9 +659,6 @@
     <t>CYN3C28</t>
   </si>
   <si>
-    <t>ALU4689</t>
-  </si>
-  <si>
     <t>DAO4225</t>
   </si>
   <si>
@@ -701,18 +671,12 @@
     <t>LUCIMARA</t>
   </si>
   <si>
-    <t>MGU4B19</t>
-  </si>
-  <si>
     <t>CUA0F83</t>
   </si>
   <si>
     <t>ROGERIO</t>
   </si>
   <si>
-    <t>ACT7A05</t>
-  </si>
-  <si>
     <t>REINALDO</t>
   </si>
   <si>
@@ -1067,13 +1031,106 @@
     <t>MLN9J58</t>
   </si>
   <si>
-    <t>EFO6H07</t>
-  </si>
-  <si>
     <t>EVO9E70</t>
   </si>
   <si>
     <t>JBS3I12</t>
+  </si>
+  <si>
+    <t>AZU0D80</t>
+  </si>
+  <si>
+    <t>AVI0896</t>
+  </si>
+  <si>
+    <t>PUJ4F40</t>
+  </si>
+  <si>
+    <t>AXX1C73</t>
+  </si>
+  <si>
+    <t>ATU3532</t>
+  </si>
+  <si>
+    <t>AUB8I31 </t>
+  </si>
+  <si>
+    <t>ATO8908</t>
+  </si>
+  <si>
+    <t>ALEX FABIANO FAGUNDES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CLEBERSON FURLAN</t>
+  </si>
+  <si>
+    <t>FABIANO ANTONIO DA ROCHA</t>
+  </si>
+  <si>
+    <t>DOUGLAS IAN FRANCO</t>
+  </si>
+  <si>
+    <t>JONATHAN GREGORIO DA SILVA</t>
+  </si>
+  <si>
+    <t>JOSUE LUIS DE SOUZA</t>
+  </si>
+  <si>
+    <t>LOURIVAL ROEPER</t>
+  </si>
+  <si>
+    <t>LUIZ FELIPE DA PAZ VELLOSO</t>
+  </si>
+  <si>
+    <t>MAIKON EIDT GONCALVES</t>
+  </si>
+  <si>
+    <t>JADIR APARECIDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>DIEGO RAMOS FRANCISCO DA SILVA</t>
+  </si>
+  <si>
+    <t>REINALDO KERSCHER DA ROCHA</t>
+  </si>
+  <si>
+    <t>ROGERIO ATNER</t>
+  </si>
+  <si>
+    <t>WAGNER VELOSO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>DANIEL BORGES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>REGINALDO LEMOS</t>
+  </si>
+  <si>
+    <t>HEVERTON ROSA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>OTONIEL MAXIMIANO DA SILVA</t>
+  </si>
+  <si>
+    <t>AGUINALDO MORAIS TEIXEIRA</t>
+  </si>
+  <si>
+    <t>EDSON PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>JOSE APARECIDO DE JESUS</t>
+  </si>
+  <si>
+    <t>NIVALDO SANTOS SOUZA</t>
+  </si>
+  <si>
+    <t>ANSELMO APARECIDO RODRIGUES</t>
+  </si>
+  <si>
+    <t>EDIVANDO DEFAVERI</t>
+  </si>
+  <si>
+    <t>MARCIO DE OLIVEIRA JORGE</t>
   </si>
 </sst>
 </file>
@@ -1083,26 +1140,12 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1240,11 +1283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1358,7 +1396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1460,19 +1498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1486,328 +1511,301 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="20" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="23" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2231,22 +2229,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.19921875" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" style="48" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="48"/>
+    <col min="3" max="3" width="25.296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2256,13 +2253,10 @@
       <c r="C1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>18</v>
@@ -2270,776 +2264,731 @@
       <c r="C2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="54" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C9" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C13" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="53"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="C14" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C15" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B17" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C17" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B18" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C18" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B19" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B20" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C21" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B22" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="53" t="s">
+      <c r="C22" s="52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="53" t="s">
+      <c r="B26" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="53" t="s">
+      <c r="C26" s="52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="54" t="s">
+      <c r="C27" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B28" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C28" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B29" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C29" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B30" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C30" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B31" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C31" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B32" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C32" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B33" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C33" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="53" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="B34" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="53" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="C35" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="53" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="C36" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="53" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+      <c r="C37" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="53" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="C38" s="52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+      <c r="C39" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="56" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+      <c r="C40" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="56" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="56" t="s">
+      <c r="C41" s="52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="B44" s="118" t="s">
+      <c r="C42" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C43" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="C44" s="56" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="B45" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C45" s="56" t="s">
+      <c r="B49" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="58" t="s">
-        <v>342</v>
-      </c>
-      <c r="B46" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="D46" s="56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="B47" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" s="59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="B48" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="B49" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="56" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="s">
-        <v>344</v>
-      </c>
-      <c r="B50" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58" t="s">
-        <v>342</v>
-      </c>
-      <c r="B51" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="58" t="s">
+      <c r="B62" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="56" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C55" s="56" t="s">
+      <c r="B67" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C56" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="B57" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="56" t="s">
-        <v>217</v>
+      <c r="B68" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3058,1163 +3007,1163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="116" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" style="64" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.296875" style="64" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.19921875" style="64" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" style="64" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="64"/>
+    <col min="1" max="1" width="14.69921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" style="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.19921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="58">
+        <v>2011</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="I2" s="61"/>
+      <c r="J2" s="62">
+        <v>45662</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="62">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="64">
+        <v>2013</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="66">
+        <v>45649</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="66">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="58">
+        <v>2007</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="68"/>
+      <c r="J4" s="62">
+        <v>45660</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="62">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="60">
+        <v>2011</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="72">
+        <v>45686</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="72">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="58">
+        <v>2007</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="62">
+        <v>45690</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="L6" s="62">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="75">
+        <v>2010</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="76">
+        <v>45698</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="L7" s="76">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="60"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="79">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="81">
+        <v>45642</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="L9" s="81">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="79">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="68"/>
+      <c r="J10" s="81">
+        <v>45660</v>
+      </c>
+      <c r="K10" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" s="81">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="79">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="81">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="79">
+        <v>2011</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="68"/>
+      <c r="J12" s="81">
+        <v>45665</v>
+      </c>
+      <c r="K12" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="L12" s="81">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="88">
+        <v>2008</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="68"/>
+      <c r="J14" s="90">
+        <v>45662</v>
+      </c>
+      <c r="K14" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="L14" s="90">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="88">
+        <v>2008</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="68"/>
+      <c r="J15" s="90">
+        <v>45660</v>
+      </c>
+      <c r="K15" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="L15" s="90">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="88">
+        <v>2011</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="68"/>
+      <c r="J16" s="90">
+        <v>45683</v>
+      </c>
+      <c r="K16" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="L16" s="90">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="93"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="54">
+        <v>2010</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="68"/>
+      <c r="J18" s="62">
+        <v>45700</v>
+      </c>
+      <c r="K18" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="L18" s="62">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="60">
+        <v>2012</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="F19" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="G19" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="68"/>
+      <c r="J19" s="72">
+        <v>45651</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="72">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="58">
+        <v>2011</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="K1" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="H20" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="62">
+        <v>45668</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" s="72">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="58">
+        <v>2012</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="68"/>
+      <c r="J21" s="62">
+        <v>45655</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="L21" s="62">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="58">
+        <v>2011</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" s="68"/>
+      <c r="J22" s="62">
+        <v>45673</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="L22" s="62">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="58">
+        <v>2011</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="68"/>
+      <c r="J23" s="62">
+        <v>45697</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="L23" s="62">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="64">
+        <v>2009</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="66">
+        <v>45697</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="L24" s="66">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58">
+        <v>2011</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="I25" s="68"/>
+      <c r="J25" s="62">
+        <v>45697</v>
+      </c>
+      <c r="K25" s="55"/>
+      <c r="L25" s="62"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58">
+        <v>2011</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="I26" s="68"/>
+      <c r="J26" s="62">
+        <v>45697</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="62"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98">
+        <v>2011</v>
+      </c>
+      <c r="D27" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="99">
+        <v>45697</v>
+      </c>
+      <c r="K27" s="100"/>
+      <c r="L27" s="99"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58">
+        <v>2011</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="66">
+      <c r="I28" s="68"/>
+      <c r="J28" s="62">
+        <v>45697</v>
+      </c>
+      <c r="K28" s="55"/>
+      <c r="L28" s="62"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="102">
         <v>2011</v>
       </c>
-      <c r="D2" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="67" t="s">
+      <c r="D29" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="F29" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="G29" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="H29" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106">
+        <v>45712</v>
+      </c>
+      <c r="K29" s="107"/>
+      <c r="L29" s="106"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="94" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="93" t="s">
+        <v>311</v>
+      </c>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="60">
         <v>6</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70">
-        <v>45662</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>271</v>
-      </c>
-      <c r="L2" s="70">
-        <v>45736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="72">
-        <v>2013</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="74">
-        <v>45649</v>
-      </c>
-      <c r="K3" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="L3" s="74">
-        <v>45762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="66">
-        <v>2007</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="70">
-        <v>45660</v>
-      </c>
-      <c r="K4" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="70">
-        <v>45769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="68">
-        <v>2011</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="79" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" s="60">
         <v>4</v>
       </c>
-      <c r="F5" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="80">
-        <v>45686</v>
-      </c>
-      <c r="K5" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="L5" s="80">
-        <v>45795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="66">
-        <v>2007</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="70">
-        <v>45690</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="L6" s="70">
-        <v>45834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="83">
-        <v>2010</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="84">
-        <v>45698</v>
-      </c>
-      <c r="K7" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="L7" s="84">
-        <v>45774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="68"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="87">
-        <v>2021</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="87" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="B34" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="B35" s="60">
         <v>3</v>
       </c>
-      <c r="H9" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="89">
-        <v>45642</v>
-      </c>
-      <c r="K9" s="90" t="s">
-        <v>288</v>
-      </c>
-      <c r="L9" s="89">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="87">
-        <v>2021</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="89">
-        <v>45660</v>
-      </c>
-      <c r="K10" s="90" t="s">
-        <v>289</v>
-      </c>
-      <c r="L10" s="89">
-        <v>45753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="87">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>290</v>
-      </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90" t="s">
-        <v>291</v>
-      </c>
-      <c r="L11" s="89">
-        <v>45753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="87">
-        <v>2011</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="F12" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>254</v>
-      </c>
-      <c r="H12" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="89">
-        <v>45665</v>
-      </c>
-      <c r="K12" s="90" t="s">
-        <v>293</v>
-      </c>
-      <c r="L12" s="89">
-        <v>45749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="92"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="96">
-        <v>2008</v>
-      </c>
-      <c r="D14" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="76"/>
-      <c r="J14" s="98">
-        <v>45662</v>
-      </c>
-      <c r="K14" s="99" t="s">
-        <v>295</v>
-      </c>
-      <c r="L14" s="98">
-        <v>45735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="96">
-        <v>2008</v>
-      </c>
-      <c r="D15" s="95" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="98">
-        <v>45660</v>
-      </c>
-      <c r="K15" s="99" t="s">
-        <v>296</v>
-      </c>
-      <c r="L15" s="98">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="96">
-        <v>2011</v>
-      </c>
-      <c r="D16" s="95" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="96" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="76"/>
-      <c r="J16" s="98">
-        <v>45683</v>
-      </c>
-      <c r="K16" s="99" t="s">
-        <v>297</v>
-      </c>
-      <c r="L16" s="98">
-        <v>45829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="101"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="62">
-        <v>2010</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="70">
-        <v>45700</v>
-      </c>
-      <c r="K18" s="104" t="s">
-        <v>298</v>
-      </c>
-      <c r="L18" s="70">
-        <v>45801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="68">
-        <v>2012</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="79" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="H19" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="80">
-        <v>45651</v>
-      </c>
-      <c r="K19" s="81" t="s">
-        <v>300</v>
-      </c>
-      <c r="L19" s="80">
-        <v>45760</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="66">
-        <v>2011</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="79" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="98">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="98" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" s="98">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="B38" s="98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="98" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" s="98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="98" t="s">
+        <v>320</v>
+      </c>
+      <c r="B40" s="98"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="108" t="s">
+        <v>321</v>
+      </c>
+      <c r="B43" s="108" t="s">
+        <v>320</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="B59" s="109">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="B62" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="109" t="s">
+        <v>326</v>
+      </c>
+      <c r="B64" s="109"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="B65" s="60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="60">
         <v>5</v>
       </c>
-      <c r="F20" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="I20" s="76"/>
-      <c r="J20" s="70">
-        <v>45668</v>
-      </c>
-      <c r="K20" s="63" t="s">
-        <v>301</v>
-      </c>
-      <c r="L20" s="80">
-        <v>45665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="66">
-        <v>2012</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="70">
-        <v>45655</v>
-      </c>
-      <c r="K21" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="L21" s="70">
-        <v>45665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="66">
-        <v>2011</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="70">
-        <v>45673</v>
-      </c>
-      <c r="K22" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="L22" s="70">
-        <v>45797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="C23" s="66">
-        <v>2011</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="G23" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="H23" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="70">
-        <v>45697</v>
-      </c>
-      <c r="K23" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="L23" s="70">
-        <v>45783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>305</v>
-      </c>
-      <c r="C24" s="72">
-        <v>2009</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>307</v>
-      </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="74">
-        <v>45697</v>
-      </c>
-      <c r="K24" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="L24" s="74">
-        <v>45825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66">
-        <v>2011</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="H25" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="70">
-        <v>45697</v>
-      </c>
-      <c r="K25" s="63"/>
-      <c r="L25" s="70"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66">
-        <v>2011</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="F26" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="G26" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="H26" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="I26" s="76"/>
-      <c r="J26" s="70">
-        <v>45697</v>
-      </c>
-      <c r="K26" s="63"/>
-      <c r="L26" s="70"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106">
-        <v>2011</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="106" t="s">
-        <v>312</v>
-      </c>
-      <c r="F27" s="106" t="s">
-        <v>313</v>
-      </c>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107">
-        <v>45697</v>
-      </c>
-      <c r="K27" s="108"/>
-      <c r="L27" s="107"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66">
-        <v>2011</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="F28" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="G28" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="I28" s="76"/>
-      <c r="J28" s="70">
-        <v>45697</v>
-      </c>
-      <c r="K28" s="63"/>
-      <c r="L28" s="70"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="109" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="109" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="110">
-        <v>2011</v>
-      </c>
-      <c r="D29" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="112" t="s">
-        <v>316</v>
-      </c>
-      <c r="F29" s="112" t="s">
-        <v>317</v>
-      </c>
-      <c r="G29" s="112" t="s">
-        <v>318</v>
-      </c>
-      <c r="H29" s="112" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114">
-        <v>45712</v>
-      </c>
-      <c r="K29" s="115"/>
-      <c r="L29" s="114"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="101" t="s">
+      <c r="B67" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101" t="s">
-        <v>321</v>
-      </c>
-      <c r="F30" s="102" t="s">
-        <v>322</v>
-      </c>
-      <c r="G30" s="101" t="s">
-        <v>323</v>
-      </c>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="68" t="s">
-        <v>324</v>
-      </c>
-      <c r="B32" s="68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="68" t="s">
-        <v>325</v>
-      </c>
-      <c r="B33" s="68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="B34" s="68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="68" t="s">
-        <v>327</v>
-      </c>
-      <c r="B35" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="106" t="s">
-        <v>328</v>
-      </c>
-      <c r="B36" s="106">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="106" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="106">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="106" t="s">
-        <v>330</v>
-      </c>
-      <c r="B38" s="106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="106" t="s">
-        <v>331</v>
-      </c>
-      <c r="B39" s="106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="106" t="s">
-        <v>332</v>
-      </c>
-      <c r="B40" s="106"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="116" t="s">
-        <v>333</v>
-      </c>
-      <c r="B43" s="116" t="s">
-        <v>332</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="116" t="s">
-        <v>227</v>
-      </c>
-      <c r="B44" s="116" t="s">
-        <v>335</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="64" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="117" t="s">
-        <v>328</v>
-      </c>
-      <c r="B59" s="117">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="68" t="s">
-        <v>324</v>
-      </c>
-      <c r="B60" s="68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="68" t="s">
-        <v>325</v>
-      </c>
-      <c r="B61" s="68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="B62" s="68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="68" t="s">
-        <v>327</v>
-      </c>
-      <c r="B63" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="117" t="s">
-        <v>338</v>
-      </c>
-      <c r="B64" s="117"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B65" s="68">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="68" t="s">
-        <v>330</v>
-      </c>
-      <c r="B66" s="68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="68" t="s">
-        <v>331</v>
-      </c>
-      <c r="B67" s="68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="68" t="s">
-        <v>332</v>
-      </c>
-      <c r="B68" s="68"/>
+      <c r="B68" s="60"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
@@ -4320,7 +4269,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11" t="s">
@@ -4347,7 +4296,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
@@ -4374,7 +4323,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
@@ -4386,22 +4335,22 @@
     </row>
     <row r="5" spans="1:255" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
@@ -4428,7 +4377,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11" t="s">
@@ -4439,13 +4388,13 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:255" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="20"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -4468,7 +4417,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="11" t="s">
@@ -4495,7 +4444,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="11" t="s">
@@ -4522,7 +4471,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="17" t="s">
@@ -4549,7 +4498,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="11" t="s">
@@ -4576,7 +4525,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="11" t="s">
@@ -4603,7 +4552,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="17" t="s">
@@ -4630,7 +4579,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="17" t="s">
@@ -4648,14 +4597,14 @@
         <v>33</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="17" t="s">
@@ -4666,13 +4615,13 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:255" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="119"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="20"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -4939,7 +4888,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="17" t="s">
@@ -5210,7 +5159,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="25" t="s">
@@ -5481,7 +5430,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
@@ -5752,7 +5701,7 @@
         <v>73</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="17" t="s">
@@ -6023,7 +5972,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="11" t="s">
@@ -6294,7 +6243,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
@@ -6565,7 +6514,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="17" t="s">
@@ -6600,16 +6549,16 @@
         <v>60</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="11" t="s">
@@ -6880,7 +6829,7 @@
         <v>89</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="11" t="s">
@@ -7151,7 +7100,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11" t="s">
@@ -7422,7 +7371,7 @@
         <v>89</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="11" t="s">
@@ -7678,22 +7627,22 @@
     </row>
     <row r="28" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="11" t="s">
@@ -7964,7 +7913,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="17" t="s">
@@ -8492,7 +8441,7 @@
         <v>21</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="11" t="s">
@@ -8763,7 +8712,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="11" t="s">
@@ -8967,7 +8916,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="11" t="s">
@@ -9238,7 +9187,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="11" t="s">
@@ -9442,7 +9391,7 @@
         <v>21</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="11" t="s">
@@ -9698,22 +9647,22 @@
     </row>
     <row r="36" spans="1:255" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="11" t="s">
@@ -9809,13 +9758,13 @@
     </row>
     <row r="37" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>85</v>
@@ -9824,7 +9773,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="17" t="s">
@@ -10080,22 +10029,22 @@
     </row>
     <row r="38" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="17" t="s">
@@ -10124,22 +10073,22 @@
     </row>
     <row r="39" spans="1:255" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="17" t="s">
@@ -10235,13 +10184,13 @@
     </row>
     <row r="40" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>85</v>
@@ -10250,7 +10199,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="11" t="s">
@@ -10439,22 +10388,22 @@
     </row>
     <row r="41" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C41" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="34" t="s">
         <v>132</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>133</v>
       </c>
       <c r="E41" s="34" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="11" t="s">
@@ -10710,22 +10659,22 @@
     </row>
     <row r="42" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>136</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="11" t="s">
@@ -10981,22 +10930,22 @@
     </row>
     <row r="43" spans="1:255" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="17" t="s">

--- a/FROTA AGREGADOS.XLSX
+++ b/FROTA AGREGADOS.XLSX
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Documents\Arquivos\Github\073\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Documents\Arquivos\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B69F8B9-E1FF-4E7D-A8E9-3C0B1D73046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15ADABD-942E-4805-8BF5-F82F91AA8648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="373">
   <si>
     <t>PLACA</t>
   </si>
@@ -386,12 +386,6 @@
     <t>41-998608187</t>
   </si>
   <si>
-    <t>HBY0H19</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
     <t>ATJ8452</t>
   </si>
   <si>
@@ -461,12 +455,18 @@
     <t>UBIRATAN</t>
   </si>
   <si>
+    <t>TADEU</t>
+  </si>
+  <si>
     <t>THIAGO</t>
   </si>
   <si>
     <t>RONALDO COSTA</t>
   </si>
   <si>
+    <t>JAMIL/RONALDO</t>
+  </si>
+  <si>
     <t>FGU4I29</t>
   </si>
   <si>
@@ -599,9 +599,6 @@
     <t>IRATI-PR</t>
   </si>
   <si>
-    <t>BDZ3J54</t>
-  </si>
-  <si>
     <t>DOUGLAS</t>
   </si>
   <si>
@@ -641,12 +638,27 @@
     <t>JAS2E67</t>
   </si>
   <si>
+    <t>IQA3A06</t>
+  </si>
+  <si>
     <t>PRAÇA</t>
   </si>
   <si>
     <t>SIMPLES</t>
   </si>
   <si>
+    <t>NILSON</t>
+  </si>
+  <si>
+    <t>MHL0E39</t>
+  </si>
+  <si>
+    <t>ALEFER</t>
+  </si>
+  <si>
+    <t>AMU5I35</t>
+  </si>
+  <si>
     <t>AHX9445</t>
   </si>
   <si>
@@ -659,6 +671,9 @@
     <t>CYN3C28</t>
   </si>
   <si>
+    <t>ALU4689</t>
+  </si>
+  <si>
     <t>DAO4225</t>
   </si>
   <si>
@@ -671,12 +686,18 @@
     <t>LUCIMARA</t>
   </si>
   <si>
+    <t>MGU4B19</t>
+  </si>
+  <si>
     <t>CUA0F83</t>
   </si>
   <si>
     <t>ROGERIO</t>
   </si>
   <si>
+    <t>ACT7A05</t>
+  </si>
+  <si>
     <t>REINALDO</t>
   </si>
   <si>
@@ -1022,115 +1043,118 @@
     <t xml:space="preserve">CARRETAS FOODS </t>
   </si>
   <si>
-    <t>CAVALINHO</t>
-  </si>
-  <si>
     <t>DVS1B60</t>
   </si>
   <si>
     <t>MLN9J58</t>
   </si>
   <si>
+    <t>EFO6H07</t>
+  </si>
+  <si>
     <t>EVO9E70</t>
   </si>
   <si>
     <t>JBS3I12</t>
   </si>
   <si>
-    <t>AZU0D80</t>
-  </si>
-  <si>
-    <t>AVI0896</t>
-  </si>
-  <si>
-    <t>PUJ4F40</t>
-  </si>
-  <si>
-    <t>AXX1C73</t>
-  </si>
-  <si>
-    <t>ATU3532</t>
-  </si>
-  <si>
-    <t>AUB8I31 </t>
-  </si>
-  <si>
-    <t>ATO8908</t>
-  </si>
-  <si>
-    <t>ALEX FABIANO FAGUNDES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>CLEBERSON FURLAN</t>
-  </si>
-  <si>
-    <t>FABIANO ANTONIO DA ROCHA</t>
-  </si>
-  <si>
-    <t>DOUGLAS IAN FRANCO</t>
-  </si>
-  <si>
-    <t>JONATHAN GREGORIO DA SILVA</t>
-  </si>
-  <si>
-    <t>JOSUE LUIS DE SOUZA</t>
-  </si>
-  <si>
-    <t>LOURIVAL ROEPER</t>
-  </si>
-  <si>
-    <t>LUIZ FELIPE DA PAZ VELLOSO</t>
-  </si>
-  <si>
-    <t>MAIKON EIDT GONCALVES</t>
-  </si>
-  <si>
-    <t>JADIR APARECIDO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>DIEGO RAMOS FRANCISCO DA SILVA</t>
-  </si>
-  <si>
-    <t>REINALDO KERSCHER DA ROCHA</t>
-  </si>
-  <si>
-    <t>ROGERIO ATNER</t>
-  </si>
-  <si>
-    <t>WAGNER VELOSO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>DANIEL BORGES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>REGINALDO LEMOS</t>
-  </si>
-  <si>
-    <t>HEVERTON ROSA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>OTONIEL MAXIMIANO DA SILVA</t>
-  </si>
-  <si>
-    <t>AGUINALDO MORAIS TEIXEIRA</t>
-  </si>
-  <si>
-    <t>EDSON PEREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>JOSE APARECIDO DE JESUS</t>
-  </si>
-  <si>
-    <t>NIVALDO SANTOS SOUZA</t>
-  </si>
-  <si>
-    <t>ANSELMO APARECIDO RODRIGUES</t>
-  </si>
-  <si>
-    <t>EDIVANDO DEFAVERI</t>
-  </si>
-  <si>
-    <t>MARCIO DE OLIVEIRA JORGE</t>
+    <t>RHN3D74</t>
+  </si>
+  <si>
+    <t>CLEVERSON</t>
+  </si>
+  <si>
+    <t>RJX9B77</t>
+  </si>
+  <si>
+    <t>IRINEU</t>
+  </si>
+  <si>
+    <t>AUE0B95</t>
+  </si>
+  <si>
+    <t>JOSE ADMIR</t>
+  </si>
+  <si>
+    <t>AYM4313</t>
+  </si>
+  <si>
+    <t>AAM6A01</t>
+  </si>
+  <si>
+    <t>ATZ1H55</t>
+  </si>
+  <si>
+    <t>ARE9E25</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>JHONATAN</t>
+  </si>
+  <si>
+    <t>GETER</t>
+  </si>
+  <si>
+    <t>ATC2B88</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>AWC4B38</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>AZN3A28</t>
+  </si>
+  <si>
+    <t>ANTONIO MARCOS</t>
+  </si>
+  <si>
+    <t>TAX3I90</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>PGR6B00</t>
+  </si>
+  <si>
+    <t>APQ0I85</t>
+  </si>
+  <si>
+    <t>EVERSON</t>
+  </si>
+  <si>
+    <t>AYH0C58</t>
+  </si>
+  <si>
+    <t>GERSON</t>
+  </si>
+  <si>
+    <t>CLAUDINEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUCK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOCO </t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>CAVALO</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,18 +1295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Antique Olive"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1310,7 +1322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1392,6 +1404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,163 +1667,163 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="20" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="18" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2229,766 +2247,918 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="48" customWidth="1"/>
-    <col min="3" max="3" width="25.296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="48"/>
+    <col min="1" max="1" width="7.09765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="111" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="D1" s="111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="109" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="109" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="109" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="109" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="109" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="109" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="109" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="90" t="str">
+        <f>A17</f>
+        <v>EFU0H78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="109" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="90" t="str">
+        <f t="shared" ref="D18:D61" si="0">A18</f>
+        <v>RHN3D74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="109" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="109" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="D19" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>JBS3I12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="52" t="s">
+      <c r="B20" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AQM2782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="109" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>RJX9B77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="109" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AUE0B95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="109" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="D23" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>DRI2F93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="109" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AYM4313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="109" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="109" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AAM6A01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="109" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>ATZ1H55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>MGV0679</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>MFT7941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="52" t="s">
+      <c r="B29" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" s="109" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="D29" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>MMF0820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>IPA4J50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="109" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" s="109" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>ARE9E25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="B32" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>ARV2769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="52" t="s">
+      <c r="B33" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" s="109" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="D33" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AUU2168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>ARK2319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>BCP0A55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>MHV4747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>MIK5D90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="52" t="s">
+      <c r="B38" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" s="109" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="D38" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>BAF1554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="52" t="s">
+      <c r="B39" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" s="109" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="D39" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>NZL5D30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="B40" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" s="109" t="s">
+        <v>352</v>
+      </c>
+      <c r="D40" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>ATD5C29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="52" t="s">
+      <c r="B41" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="109" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="D41" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AOQ4182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="52" t="s">
+      <c r="B42" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="109" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="D42" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AYA2D69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="52" t="s">
+      <c r="B43" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43" s="109" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="D43" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AVY2D92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>354</v>
+      </c>
+      <c r="D44" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>ATC2B88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="109" t="s">
+        <v>355</v>
+      </c>
+      <c r="B45" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C45" s="109" t="s">
+        <v>356</v>
+      </c>
+      <c r="D45" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AWC4B38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="109" t="s">
+        <v>357</v>
+      </c>
+      <c r="B46" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C46" s="109" t="s">
+        <v>358</v>
+      </c>
+      <c r="D46" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AZN3A28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AGW0057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="109" t="s">
+        <v>359</v>
+      </c>
+      <c r="B48" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C48" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>TAX3I90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>DVT9J76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="109" t="s">
+        <v>360</v>
+      </c>
+      <c r="D50" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>FME5E96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="109" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C51" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>PGR6B00</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="109" t="s">
+        <v>362</v>
+      </c>
+      <c r="B52" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C52" s="109" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>APQ0I85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="109" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C53" s="109" t="s">
+        <v>365</v>
+      </c>
+      <c r="D53" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>AYH0C58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C54" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>EGR9E16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>MHW2734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="52" t="s">
+      <c r="B56" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" s="109" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="D56" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>BDA4J25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>IRU6B73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="52" t="s">
+      <c r="B58" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="109" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="D58" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>APW1789</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C59" s="109" t="s">
+        <v>366</v>
+      </c>
+      <c r="D59" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>NMR2D71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C60" s="109" t="s">
+        <v>367</v>
+      </c>
+      <c r="D60" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>BAM5D71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="52" t="s">
+      <c r="B61" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="C61" s="109" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="B57" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="B58" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
-        <v>336</v>
-      </c>
-      <c r="B59" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
-        <v>337</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="B62" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B63" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="B64" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="B68" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C68" s="52" t="s">
-        <v>364</v>
+      <c r="D61" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>ATJ8452</v>
       </c>
     </row>
   </sheetData>
@@ -3007,1163 +3177,1163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.19921875" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="56" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" style="56" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="56" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="56"/>
+    <col min="1" max="1" width="14.69921875" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" style="104" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.296875" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.19921875" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="E1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="54">
+        <v>2011</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58">
+        <v>45662</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="L2" s="58">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="60">
+        <v>2013</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="62">
+        <v>45649</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" s="62">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="54">
+        <v>2007</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="64"/>
+      <c r="J4" s="58">
+        <v>45660</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" s="58">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="56">
+        <v>2011</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="64"/>
+      <c r="J5" s="68">
+        <v>45686</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="68">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="54">
+        <v>2007</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="64"/>
+      <c r="J6" s="58">
+        <v>45690</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="L6" s="58">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="71">
+        <v>2010</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="72">
+        <v>45698</v>
+      </c>
+      <c r="K7" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="72">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="75">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="77">
+        <v>45642</v>
+      </c>
+      <c r="K9" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="L9" s="77">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="75">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="77">
+        <v>45660</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="L10" s="77">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="75">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" s="64"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="L11" s="77">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="75">
+        <v>2011</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="77">
+        <v>45665</v>
+      </c>
+      <c r="K12" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="L12" s="77">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="80"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="84">
+        <v>2008</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="86">
+        <v>45662</v>
+      </c>
+      <c r="K14" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="86">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="84">
+        <v>2008</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="64"/>
+      <c r="J15" s="86">
+        <v>45660</v>
+      </c>
+      <c r="K15" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="L15" s="86">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="84">
+        <v>2011</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="64"/>
+      <c r="J16" s="86">
+        <v>45683</v>
+      </c>
+      <c r="K16" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="L16" s="86">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="89"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="50">
+        <v>2010</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="F18" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1" s="54" t="s">
+      <c r="G18" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" s="64"/>
+      <c r="J18" s="58">
+        <v>45700</v>
+      </c>
+      <c r="K18" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="L18" s="58">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="56">
+        <v>2012</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="I19" s="64"/>
+      <c r="J19" s="68">
+        <v>45651</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="L19" s="68">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="54">
+        <v>2011</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="58">
+        <v>45668</v>
+      </c>
+      <c r="K20" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="L20" s="68">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="54">
+        <v>2012</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="58">
+        <v>45655</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="L21" s="58">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="54">
+        <v>2011</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="I22" s="64"/>
+      <c r="J22" s="58">
+        <v>45673</v>
+      </c>
+      <c r="K22" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="L22" s="58">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="54">
+        <v>2011</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" s="64"/>
+      <c r="J23" s="58">
+        <v>45697</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="L23" s="58">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="60">
+        <v>2009</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" s="60"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="62">
+        <v>45697</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="L24" s="62">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54">
+        <v>2011</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="I25" s="64"/>
+      <c r="J25" s="58">
+        <v>45697</v>
+      </c>
+      <c r="K25" s="51"/>
+      <c r="L25" s="58"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54">
+        <v>2011</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="I26" s="64"/>
+      <c r="J26" s="58">
+        <v>45697</v>
+      </c>
+      <c r="K26" s="51"/>
+      <c r="L26" s="58"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="93"/>
+      <c r="C27" s="94">
+        <v>2011</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="94" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95">
+        <v>45697</v>
+      </c>
+      <c r="K27" s="96"/>
+      <c r="L27" s="95"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54">
+        <v>2011</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="G28" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="H28" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" s="64"/>
+      <c r="J28" s="58">
+        <v>45697</v>
+      </c>
+      <c r="K28" s="51"/>
+      <c r="L28" s="58"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" s="98">
+        <v>2011</v>
+      </c>
+      <c r="D29" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="58">
-        <v>2011</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="59" t="s">
+      <c r="E29" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="100" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="100" t="s">
+        <v>313</v>
+      </c>
+      <c r="H29" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="I29" s="101"/>
+      <c r="J29" s="102">
+        <v>45712</v>
+      </c>
+      <c r="K29" s="103"/>
+      <c r="L29" s="102"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="F30" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>318</v>
+      </c>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="56">
         <v>6</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62">
-        <v>45662</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="L2" s="62">
-        <v>45736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="63" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="94" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="94">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="94" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" s="94">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="94" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="94" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" s="94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="94" t="s">
+        <v>327</v>
+      </c>
+      <c r="B40" s="94"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" s="104" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="64">
-        <v>2013</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="66">
-        <v>45649</v>
-      </c>
-      <c r="K3" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="L3" s="66">
-        <v>45762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="58">
-        <v>2007</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="62">
-        <v>45660</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="L4" s="62">
-        <v>45769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="60">
-        <v>2011</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="71" t="s">
+      <c r="B44" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="105" t="s">
+        <v>323</v>
+      </c>
+      <c r="B59" s="105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="B60" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="56">
         <v>4</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="72">
-        <v>45686</v>
-      </c>
-      <c r="K5" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="L5" s="72">
-        <v>45795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="58">
-        <v>2007</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="62">
-        <v>45690</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="L6" s="62">
-        <v>45834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="75">
-        <v>2010</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="76">
-        <v>45698</v>
-      </c>
-      <c r="K7" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="L7" s="76">
-        <v>45774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="60"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="79">
-        <v>2021</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="79" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="B63" s="56">
         <v>3</v>
       </c>
-      <c r="H9" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="81">
-        <v>45642</v>
-      </c>
-      <c r="K9" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="L9" s="81">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="79">
-        <v>2021</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="79" t="s">
-        <v>215</v>
-      </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="81">
-        <v>45660</v>
-      </c>
-      <c r="K10" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="81">
-        <v>45753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="79">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82" t="s">
-        <v>279</v>
-      </c>
-      <c r="L11" s="81">
-        <v>45753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="79">
-        <v>2011</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>215</v>
-      </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="81">
-        <v>45665</v>
-      </c>
-      <c r="K12" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="L12" s="81">
-        <v>45749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="88">
-        <v>2008</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="90">
-        <v>45662</v>
-      </c>
-      <c r="K14" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="L14" s="90">
-        <v>45735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="88">
-        <v>2008</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="90">
-        <v>45660</v>
-      </c>
-      <c r="K15" s="91" t="s">
-        <v>284</v>
-      </c>
-      <c r="L15" s="90">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="88">
-        <v>2011</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="H16" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="90">
-        <v>45683</v>
-      </c>
-      <c r="K16" s="91" t="s">
-        <v>285</v>
-      </c>
-      <c r="L16" s="90">
-        <v>45829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="93"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="54">
-        <v>2010</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="62">
-        <v>45700</v>
-      </c>
-      <c r="K18" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="L18" s="62">
-        <v>45801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="60">
-        <v>2012</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>287</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="72">
-        <v>45651</v>
-      </c>
-      <c r="K19" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19" s="72">
-        <v>45760</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="58">
-        <v>2011</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="71" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="105" t="s">
+        <v>333</v>
+      </c>
+      <c r="B64" s="105"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65" s="56">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" s="56">
         <v>5</v>
       </c>
-      <c r="F20" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="62">
-        <v>45668</v>
-      </c>
-      <c r="K20" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="L20" s="72">
-        <v>45665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="58">
-        <v>2012</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="I21" s="68"/>
-      <c r="J21" s="62">
-        <v>45655</v>
-      </c>
-      <c r="K21" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="L21" s="62">
-        <v>45665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="58">
-        <v>2011</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="62">
-        <v>45673</v>
-      </c>
-      <c r="K22" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="L22" s="62">
-        <v>45797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="58">
-        <v>2011</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="62">
-        <v>45697</v>
-      </c>
-      <c r="K23" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="L23" s="62">
-        <v>45783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="C24" s="64">
-        <v>2009</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="66">
-        <v>45697</v>
-      </c>
-      <c r="K24" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="L24" s="66">
-        <v>45825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58">
-        <v>2011</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="I25" s="68"/>
-      <c r="J25" s="62">
-        <v>45697</v>
-      </c>
-      <c r="K25" s="55"/>
-      <c r="L25" s="62"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58">
-        <v>2011</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="62">
-        <v>45697</v>
-      </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="62"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="97" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98">
-        <v>2011</v>
-      </c>
-      <c r="D27" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="F27" s="98" t="s">
-        <v>301</v>
-      </c>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="99">
-        <v>45697</v>
-      </c>
-      <c r="K27" s="100"/>
-      <c r="L27" s="99"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58">
-        <v>2011</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="I28" s="68"/>
-      <c r="J28" s="62">
-        <v>45697</v>
-      </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="62"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" s="101" t="s">
-        <v>303</v>
-      </c>
-      <c r="C29" s="102">
-        <v>2011</v>
-      </c>
-      <c r="D29" s="103" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="F29" s="104" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" s="104" t="s">
-        <v>306</v>
-      </c>
-      <c r="H29" s="104" t="s">
-        <v>307</v>
-      </c>
-      <c r="I29" s="105"/>
-      <c r="J29" s="106">
-        <v>45712</v>
-      </c>
-      <c r="K29" s="107"/>
-      <c r="L29" s="106"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="93" t="s">
-        <v>308</v>
-      </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="F30" s="94" t="s">
-        <v>310</v>
-      </c>
-      <c r="G30" s="93" t="s">
-        <v>311</v>
-      </c>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
-        <v>312</v>
-      </c>
-      <c r="B32" s="60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="B33" s="60">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="B67" s="56">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="B34" s="60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="B35" s="60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="B36" s="98">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="98" t="s">
-        <v>317</v>
-      </c>
-      <c r="B37" s="98">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="98" t="s">
-        <v>318</v>
-      </c>
-      <c r="B38" s="98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="98" t="s">
-        <v>319</v>
-      </c>
-      <c r="B39" s="98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="98" t="s">
-        <v>320</v>
-      </c>
-      <c r="B40" s="98"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="108" t="s">
-        <v>321</v>
-      </c>
-      <c r="B43" s="108" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="108" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="108" t="s">
-        <v>323</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="56" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="109" t="s">
-        <v>316</v>
-      </c>
-      <c r="B59" s="109">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="60" t="s">
-        <v>312</v>
-      </c>
-      <c r="B60" s="60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="B61" s="60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" s="60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="B63" s="60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="B64" s="109"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="60" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="B65" s="60">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="B66" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="60" t="s">
-        <v>319</v>
-      </c>
-      <c r="B67" s="60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="B68" s="60"/>
+      <c r="B68" s="56"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
@@ -4388,13 +4558,13 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:255" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="20"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -4615,13 +4785,13 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:255" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="110"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="20"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -9647,16 +9817,16 @@
     </row>
     <row r="36" spans="1:255" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>21</v>
@@ -9758,13 +9928,13 @@
     </row>
     <row r="37" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>85</v>
@@ -10029,16 +10199,16 @@
     </row>
     <row r="38" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>21</v>
@@ -10073,16 +10243,16 @@
     </row>
     <row r="39" spans="1:255" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>21</v>
@@ -10184,7 +10354,7 @@
     </row>
     <row r="40" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>100</v>
@@ -10388,16 +10558,16 @@
     </row>
     <row r="41" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" s="34" t="s">
         <v>21</v>
@@ -10659,16 +10829,16 @@
     </row>
     <row r="42" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>21</v>
@@ -10930,22 +11100,22 @@
     </row>
     <row r="43" spans="1:255" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="17" t="s">

--- a/FROTA AGREGADOS.XLSX
+++ b/FROTA AGREGADOS.XLSX
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Documents\Arquivos\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Documents\Arquivos\Github\073\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15ADABD-942E-4805-8BF5-F82F91AA8648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8196A9DC-0218-4F40-B872-90098BE345C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="LOTAÇÃO" sheetId="6" r:id="rId2"/>
     <sheet name="FRACIONADO" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$72</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="405">
   <si>
     <t>PLACA</t>
   </si>
@@ -455,18 +458,12 @@
     <t>UBIRATAN</t>
   </si>
   <si>
-    <t>TADEU</t>
-  </si>
-  <si>
     <t>THIAGO</t>
   </si>
   <si>
     <t>RONALDO COSTA</t>
   </si>
   <si>
-    <t>JAMIL/RONALDO</t>
-  </si>
-  <si>
     <t>FGU4I29</t>
   </si>
   <si>
@@ -599,9 +596,6 @@
     <t>IRATI-PR</t>
   </si>
   <si>
-    <t>DOUGLAS</t>
-  </si>
-  <si>
     <t>MURILO</t>
   </si>
   <si>
@@ -647,15 +641,9 @@
     <t>SIMPLES</t>
   </si>
   <si>
-    <t>NILSON</t>
-  </si>
-  <si>
     <t>MHL0E39</t>
   </si>
   <si>
-    <t>ALEFER</t>
-  </si>
-  <si>
     <t>AMU5I35</t>
   </si>
   <si>
@@ -695,9 +683,6 @@
     <t>ROGERIO</t>
   </si>
   <si>
-    <t>ACT7A05</t>
-  </si>
-  <si>
     <t>REINALDO</t>
   </si>
   <si>
@@ -1049,9 +1034,6 @@
     <t>MLN9J58</t>
   </si>
   <si>
-    <t>EFO6H07</t>
-  </si>
-  <si>
     <t>EVO9E70</t>
   </si>
   <si>
@@ -1155,6 +1137,123 @@
   </si>
   <si>
     <t>CAVALO</t>
+  </si>
+  <si>
+    <t>ALEX FABIANO FAGUNDES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>AMX3710</t>
+  </si>
+  <si>
+    <t>CLEBERSON FURLAN</t>
+  </si>
+  <si>
+    <t>FABIANO ANTONIO DA ROCHA</t>
+  </si>
+  <si>
+    <t>DOUGLAS IAN FRANCO</t>
+  </si>
+  <si>
+    <t>ANY4318</t>
+  </si>
+  <si>
+    <t>JONATHAN GREGORIO DA SILVA</t>
+  </si>
+  <si>
+    <t>JOSUE LUIS DE SOUZA</t>
+  </si>
+  <si>
+    <t>LOURIVAL ROEPER</t>
+  </si>
+  <si>
+    <t>AZU0D80</t>
+  </si>
+  <si>
+    <t>LUIZ FELIPE DA PAZ VELLOSO</t>
+  </si>
+  <si>
+    <t>MAIKON EIDT GONCALVES</t>
+  </si>
+  <si>
+    <t>AVI0896</t>
+  </si>
+  <si>
+    <t>JADIR APARECIDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>MDN3239</t>
+  </si>
+  <si>
+    <t>DIEGO RAMOS FRANCISCO DA SILVA</t>
+  </si>
+  <si>
+    <t>JSJ5D86</t>
+  </si>
+  <si>
+    <t>REINALDO KERSCHER DA ROCHA</t>
+  </si>
+  <si>
+    <t>ROGERIO ATNER</t>
+  </si>
+  <si>
+    <t>WAGNER VELOSO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>PUJ4F40</t>
+  </si>
+  <si>
+    <t>DANIEL BORGES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>AXX1C73</t>
+  </si>
+  <si>
+    <t>REGINALDO LEMOS</t>
+  </si>
+  <si>
+    <t>ATU3532</t>
+  </si>
+  <si>
+    <t>HEVERTON ROSA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>AUB8I31 </t>
+  </si>
+  <si>
+    <t>OTONIEL MAXIMIANO DA SILVA</t>
+  </si>
+  <si>
+    <t>AGUINALDO MORAIS TEIXEIRA</t>
+  </si>
+  <si>
+    <t>AQC1I11</t>
+  </si>
+  <si>
+    <t>EDSON PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>ATO8908</t>
+  </si>
+  <si>
+    <t>JOSE APARECIDO DE JESUS</t>
+  </si>
+  <si>
+    <t>MGB5G24</t>
+  </si>
+  <si>
+    <t>NIVALDO SANTOS SOUZA</t>
+  </si>
+  <si>
+    <t>AQU1B09</t>
+  </si>
+  <si>
+    <t>ANSELMO APARECIDO RODRIGUES</t>
+  </si>
+  <si>
+    <t>EDIVANDO DEFAVERI</t>
+  </si>
+  <si>
+    <t>MARCIO DE OLIVEIRA JORGE</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1632,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1808,15 +1907,6 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1824,6 +1914,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2247,918 +2343,1027 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.09765625" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.69921875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.09765625" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.796875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="108" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="106" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="106" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="106" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="106" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="106" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="106" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C19" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>345</v>
+      </c>
+      <c r="D25" s="90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C28" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="106" t="s">
+        <v>346</v>
+      </c>
+      <c r="B29" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="106" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="106" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" s="106" t="s">
+        <v>351</v>
+      </c>
+      <c r="D31" s="90" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="106" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="106" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" s="90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="106" t="s">
+        <v>354</v>
+      </c>
+      <c r="B36" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C36" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="106" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="106" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="106" t="s">
+        <v>357</v>
+      </c>
+      <c r="B38" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="106" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" s="90" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C39" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C41" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C43" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>359</v>
+      </c>
+      <c r="D44" s="90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" s="106" t="s">
+        <v>360</v>
+      </c>
+      <c r="D45" s="90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C47" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="D47" s="90" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" s="106" t="s">
+        <v>368</v>
+      </c>
+      <c r="D48" s="90" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" s="90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="B50" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C50" s="106" t="s">
+        <v>370</v>
+      </c>
+      <c r="D50" s="90" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="B51" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C51" s="106" t="s">
         <v>372</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="D51" s="90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="D52" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53" s="106" t="s">
+        <v>374</v>
+      </c>
+      <c r="D53" s="90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="D54" s="90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="106" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" s="106" t="s">
+        <v>377</v>
+      </c>
+      <c r="D55" s="90" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="106" t="s">
+        <v>378</v>
+      </c>
+      <c r="B56" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C56" s="106" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" s="90" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C57" s="106" t="s">
+        <v>381</v>
+      </c>
+      <c r="D57" s="90" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="B58" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C58" s="106" t="s">
+        <v>383</v>
+      </c>
+      <c r="D58" s="90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="D59" s="90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D60" s="90" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="106" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C61" s="106" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" s="90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="106" t="s">
+        <v>386</v>
+      </c>
+      <c r="B62" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" s="106" t="s">
+        <v>387</v>
+      </c>
+      <c r="D62" s="90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="106" t="s">
+        <v>388</v>
+      </c>
+      <c r="B63" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C63" s="106" t="s">
+        <v>389</v>
+      </c>
+      <c r="D63" s="90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="B64" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C64" s="106" t="s">
+        <v>391</v>
+      </c>
+      <c r="D64" s="90" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="B65" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D65" s="90" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" s="106" t="s">
+        <v>394</v>
+      </c>
+      <c r="D66" s="90" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C67" s="106" t="s">
+        <v>396</v>
+      </c>
+      <c r="D67" s="90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="106" t="s">
+        <v>397</v>
+      </c>
+      <c r="B68" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" s="106" t="s">
+        <v>398</v>
+      </c>
+      <c r="D68" s="90" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="106" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
-        <v>336</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="108" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="109" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="80" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="109" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="109" t="s">
-        <v>336</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="109" t="s">
+      <c r="B69" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C69" s="106" t="s">
+        <v>400</v>
+      </c>
+      <c r="D69" s="90" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C70" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="D70" s="90" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="109" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="109" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="90" t="str">
-        <f>A17</f>
-        <v>EFU0H78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="109" t="s">
-        <v>340</v>
-      </c>
-      <c r="B18" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="C18" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="90" t="str">
-        <f t="shared" ref="D18:D61" si="0">A18</f>
-        <v>RHN3D74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="109" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>JBS3I12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="C20" s="109" t="s">
-        <v>341</v>
-      </c>
-      <c r="D20" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AQM2782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="s">
-        <v>342</v>
-      </c>
-      <c r="B21" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="109" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>RJX9B77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="109" t="s">
-        <v>344</v>
-      </c>
-      <c r="B22" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="C22" s="109" t="s">
-        <v>345</v>
-      </c>
-      <c r="D22" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AUE0B95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="109" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>DRI2F93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="109" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="C24" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AYM4313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="109" t="s">
-        <v>347</v>
-      </c>
-      <c r="B25" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="C25" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AAM6A01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="109" t="s">
-        <v>348</v>
-      </c>
-      <c r="B26" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="C26" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>ATZ1H55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="109" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>MGV0679</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="109" t="s">
-        <v>369</v>
-      </c>
-      <c r="C28" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>MFT7941</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="109" t="s">
-        <v>369</v>
-      </c>
-      <c r="C29" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>MMF0820</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="109" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>IPA4J50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="109" t="s">
-        <v>349</v>
-      </c>
-      <c r="B31" s="109" t="s">
-        <v>369</v>
-      </c>
-      <c r="C31" s="109" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>ARE9E25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="109" t="s">
-        <v>369</v>
-      </c>
-      <c r="C32" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="D32" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>ARV2769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C33" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AUU2168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C34" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>ARK2319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>BCP0A55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C36" s="109" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>MHV4747</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C37" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>MIK5D90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C38" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>BAF1554</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C39" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>NZL5D30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C40" s="109" t="s">
-        <v>352</v>
-      </c>
-      <c r="D40" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>ATD5C29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C41" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AOQ4182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C42" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AYA2D69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C43" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AVY2D92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="B44" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" s="109" t="s">
-        <v>354</v>
-      </c>
-      <c r="D44" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>ATC2B88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="109" t="s">
-        <v>355</v>
-      </c>
-      <c r="B45" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C45" s="109" t="s">
-        <v>356</v>
-      </c>
-      <c r="D45" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AWC4B38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="109" t="s">
-        <v>357</v>
-      </c>
-      <c r="B46" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C46" s="109" t="s">
-        <v>358</v>
-      </c>
-      <c r="D46" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AZN3A28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C47" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AGW0057</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="109" t="s">
-        <v>359</v>
-      </c>
-      <c r="B48" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C48" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>TAX3I90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>DVT9J76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C50" s="109" t="s">
-        <v>360</v>
-      </c>
-      <c r="D50" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>FME5E96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="109" t="s">
-        <v>361</v>
-      </c>
-      <c r="B51" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C51" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>PGR6B00</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="109" t="s">
-        <v>362</v>
-      </c>
-      <c r="B52" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C52" s="109" t="s">
-        <v>363</v>
-      </c>
-      <c r="D52" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>APQ0I85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="109" t="s">
-        <v>364</v>
-      </c>
-      <c r="B53" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C53" s="109" t="s">
+      <c r="B71" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="D53" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>AYH0C58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C54" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>EGR9E16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>MHW2734</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C56" s="109" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>BDA4J25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C57" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>IRU6B73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C58" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>APW1789</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C59" s="109" t="s">
-        <v>366</v>
-      </c>
-      <c r="D59" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>NMR2D71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C60" s="109" t="s">
-        <v>367</v>
-      </c>
-      <c r="D60" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>BAM5D71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="C61" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="90" t="str">
-        <f t="shared" si="0"/>
-        <v>ATJ8452</v>
+      <c r="C71" s="106" t="s">
+        <v>403</v>
+      </c>
+      <c r="D71" s="90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C72" s="106" t="s">
+        <v>404</v>
+      </c>
+      <c r="D72" s="90" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3194,16 +3399,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E1" s="49" t="s">
         <v>0</v>
@@ -3215,52 +3420,52 @@
         <v>137</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C2" s="54">
         <v>2011</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I2" s="57"/>
       <c r="J2" s="58">
         <v>45662</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L2" s="58">
         <v>45736</v>
@@ -3268,22 +3473,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C3" s="60">
         <v>2013</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
@@ -3292,7 +3497,7 @@
         <v>45649</v>
       </c>
       <c r="K3" s="63" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L3" s="62">
         <v>45762</v>
@@ -3300,35 +3505,35 @@
     </row>
     <row r="4" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C4" s="54">
         <v>2007</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I4" s="64"/>
       <c r="J4" s="58">
         <v>45660</v>
       </c>
       <c r="K4" s="51" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L4" s="58">
         <v>45769</v>
@@ -3336,16 +3541,16 @@
     </row>
     <row r="5" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C5" s="56">
         <v>2011</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" s="67" t="s">
         <v>4</v>
@@ -3354,17 +3559,17 @@
         <v>138</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I5" s="64"/>
       <c r="J5" s="68">
         <v>45686</v>
       </c>
       <c r="K5" s="69" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L5" s="68">
         <v>45795</v>
@@ -3372,35 +3577,35 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C6" s="54">
         <v>2007</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F6" s="50" t="s">
         <v>138</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I6" s="64"/>
       <c r="J6" s="58">
         <v>45690</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L6" s="58">
         <v>45834</v>
@@ -3408,35 +3613,35 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C7" s="71">
         <v>2010</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I7" s="64"/>
       <c r="J7" s="72">
         <v>45698</v>
       </c>
       <c r="K7" s="73" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L7" s="72">
         <v>45774</v>
@@ -3444,22 +3649,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="66" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="56"/>
       <c r="D8" s="66"/>
       <c r="E8" s="67" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G8" s="56" t="s">
         <v>132</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I8" s="64"/>
       <c r="J8" s="56"/>
@@ -3468,35 +3673,35 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C9" s="75">
         <v>2021</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="75" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I9" s="64"/>
       <c r="J9" s="77">
         <v>45642</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L9" s="77">
         <v>45726</v>
@@ -3504,35 +3709,35 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C10" s="75">
         <v>2021</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G10" s="75" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="77">
         <v>45660</v>
       </c>
       <c r="K10" s="78" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L10" s="77">
         <v>45753</v>
@@ -3540,33 +3745,33 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C11" s="75">
         <v>2021</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="75" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="77"/>
       <c r="K11" s="78" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L11" s="77">
         <v>45753</v>
@@ -3574,35 +3779,35 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C12" s="75">
         <v>2011</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="77">
         <v>45665</v>
       </c>
       <c r="K12" s="78" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L12" s="77">
         <v>45749</v>
@@ -3624,35 +3829,35 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="83" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C14" s="84">
         <v>2008</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E14" s="85" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G14" s="84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H14" s="84" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="86">
         <v>45662</v>
       </c>
       <c r="K14" s="87" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L14" s="86">
         <v>45735</v>
@@ -3660,16 +3865,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="83" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C15" s="84">
         <v>2008</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E15" s="88" t="s">
         <v>8</v>
@@ -3681,14 +3886,14 @@
         <v>9</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I15" s="64"/>
       <c r="J15" s="86">
         <v>45660</v>
       </c>
       <c r="K15" s="87" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L15" s="86">
         <v>45719</v>
@@ -3696,35 +3901,35 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="83" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C16" s="84">
         <v>2011</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I16" s="64"/>
       <c r="J16" s="86">
         <v>45683</v>
       </c>
       <c r="K16" s="87" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L16" s="86">
         <v>45829</v>
@@ -3746,35 +3951,35 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C18" s="50">
         <v>2010</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E18" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="56" t="s">
         <v>217</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>223</v>
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="58">
         <v>45700</v>
       </c>
       <c r="K18" s="92" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L18" s="58">
         <v>45801</v>
@@ -3782,35 +3987,35 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C19" s="56">
         <v>2012</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="68">
         <v>45651</v>
       </c>
       <c r="K19" s="69" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L19" s="68">
         <v>45760</v>
@@ -3818,35 +4023,35 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C20" s="54">
         <v>2011</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E20" s="67" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I20" s="64"/>
       <c r="J20" s="58">
         <v>45668</v>
       </c>
       <c r="K20" s="51" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L20" s="68">
         <v>45665</v>
@@ -3854,35 +4059,35 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C21" s="54">
         <v>2012</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G21" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H21" s="56" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I21" s="64"/>
       <c r="J21" s="58">
         <v>45655</v>
       </c>
       <c r="K21" s="51" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L21" s="58">
         <v>45665</v>
@@ -3890,35 +4095,35 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C22" s="54">
         <v>2011</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E22" s="56" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H22" s="56" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I22" s="64"/>
       <c r="J22" s="58">
         <v>45673</v>
       </c>
       <c r="K22" s="51" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L22" s="58">
         <v>45797</v>
@@ -3926,35 +4131,35 @@
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C23" s="54">
         <v>2011</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H23" s="56" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I23" s="64"/>
       <c r="J23" s="58">
         <v>45697</v>
       </c>
       <c r="K23" s="51" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L23" s="58">
         <v>45783</v>
@@ -3962,22 +4167,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C24" s="60">
         <v>2009</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="56"/>
@@ -3986,7 +4191,7 @@
         <v>45697</v>
       </c>
       <c r="K24" s="63" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L24" s="62">
         <v>45825</v>
@@ -3994,26 +4199,26 @@
     </row>
     <row r="25" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="54">
         <v>2011</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I25" s="64"/>
       <c r="J25" s="58">
@@ -4024,26 +4229,26 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="54">
         <v>2011</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I26" s="64"/>
       <c r="J26" s="58">
@@ -4054,20 +4259,20 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="93" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B27" s="93"/>
       <c r="C27" s="94">
         <v>2011</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E27" s="94" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F27" s="94" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="94"/>
@@ -4080,26 +4285,26 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="54">
         <v>2011</v>
       </c>
       <c r="D28" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="56" t="s">
         <v>193</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="H28" s="56" t="s">
-        <v>196</v>
       </c>
       <c r="I28" s="64"/>
       <c r="J28" s="58">
@@ -4110,28 +4315,28 @@
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="97" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C29" s="98">
         <v>2011</v>
       </c>
       <c r="D29" s="99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E29" s="100" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F29" s="100" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G29" s="100" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H29" s="100" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I29" s="101"/>
       <c r="J29" s="102">
@@ -4142,19 +4347,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="89" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B30" s="89"/>
       <c r="C30" s="90"/>
       <c r="D30" s="89"/>
       <c r="E30" s="89" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F30" s="90" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H30" s="89"/>
       <c r="I30" s="89"/>
@@ -4164,7 +4369,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B32" s="56">
         <v>6</v>
@@ -4172,7 +4377,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B33" s="56">
         <v>4</v>
@@ -4180,7 +4385,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B34" s="56">
         <v>10</v>
@@ -4188,7 +4393,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B35" s="56">
         <v>3</v>
@@ -4196,7 +4401,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="94" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B36" s="94">
         <v>36</v>
@@ -4204,7 +4409,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="94" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B37" s="94">
         <v>26</v>
@@ -4212,7 +4417,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="94" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B38" s="94">
         <v>4</v>
@@ -4220,7 +4425,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="94" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B39" s="94">
         <v>4</v>
@@ -4228,40 +4433,40 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="94" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B40" s="94"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="104" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B43" s="104" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="104" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B44" s="104" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D45" s="52" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="105" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B59" s="105">
         <v>36</v>
@@ -4269,7 +4474,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B60" s="56">
         <v>6</v>
@@ -4277,7 +4482,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B61" s="56">
         <v>4</v>
@@ -4285,7 +4490,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B62" s="56">
         <v>10</v>
@@ -4293,7 +4498,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B63" s="56">
         <v>3</v>
@@ -4301,13 +4506,13 @@
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="105" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B64" s="105"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B65" s="56">
         <v>27</v>
@@ -4315,7 +4520,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B66" s="56">
         <v>5</v>
@@ -4323,7 +4528,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B67" s="56">
         <v>4</v>
@@ -4331,7 +4536,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B68" s="56"/>
     </row>
@@ -4439,7 +4644,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11" t="s">
@@ -4466,7 +4671,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
@@ -4493,7 +4698,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
@@ -4505,22 +4710,22 @@
     </row>
     <row r="5" spans="1:255" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
@@ -4547,7 +4752,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11" t="s">
@@ -4558,13 +4763,13 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:255" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="106"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="20"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -4587,7 +4792,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="11" t="s">
@@ -4614,7 +4819,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="11" t="s">
@@ -4641,7 +4846,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="17" t="s">
@@ -4668,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="11" t="s">
@@ -4695,7 +4900,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="11" t="s">
@@ -4722,7 +4927,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="17" t="s">
@@ -4749,7 +4954,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="17" t="s">
@@ -4767,14 +4972,14 @@
         <v>33</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="17" t="s">
@@ -4785,13 +4990,13 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:255" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="20"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5058,7 +5263,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="17" t="s">
@@ -5329,7 +5534,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="25" t="s">
@@ -5600,7 +5805,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
@@ -5871,7 +6076,7 @@
         <v>73</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="17" t="s">
@@ -6142,7 +6347,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="11" t="s">
@@ -6413,7 +6618,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
@@ -6684,7 +6889,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="17" t="s">
@@ -6719,16 +6924,16 @@
         <v>60</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="11" t="s">
@@ -6999,7 +7204,7 @@
         <v>89</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="11" t="s">
@@ -7270,7 +7475,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11" t="s">
@@ -7541,7 +7746,7 @@
         <v>89</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="11" t="s">
@@ -7797,22 +8002,22 @@
     </row>
     <row r="28" spans="1:255" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="11" t="s">
@@ -8083,7 +8288,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="17" t="s">
@@ -8611,7 +8816,7 @@
         <v>21</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="11" t="s">
@@ -8882,7 +9087,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="11" t="s">
@@ -9086,7 +9291,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="11" t="s">
@@ -9357,7 +9562,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="11" t="s">
@@ -9561,7 +9766,7 @@
         <v>21</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="11" t="s">
@@ -9832,7 +10037,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="11" t="s">
@@ -9943,7 +10148,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="17" t="s">
@@ -10214,7 +10419,7 @@
         <v>21</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="17" t="s">
@@ -10258,7 +10463,7 @@
         <v>21</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="17" t="s">
@@ -10360,7 +10565,7 @@
         <v>100</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>85</v>
@@ -10369,7 +10574,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="11" t="s">
@@ -10573,7 +10778,7 @@
         <v>21</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="11" t="s">
@@ -10844,7 +11049,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="11" t="s">
@@ -11106,7 +11311,7 @@
         <v>100</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>135</v>
@@ -11115,7 +11320,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="17" t="s">

--- a/FROTA AGREGADOS.XLSX
+++ b/FROTA AGREGADOS.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Documents\Arquivos\Github\073\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8196A9DC-0218-4F40-B872-90098BE345C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FC840B-4FE2-4E0C-B5E3-BD754DCA7FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="406">
   <si>
     <t>PLACA</t>
   </si>
@@ -1217,9 +1217,6 @@
     <t>HEVERTON ROSA DOS SANTOS</t>
   </si>
   <si>
-    <t>AUB8I31 </t>
-  </si>
-  <si>
     <t>OTONIEL MAXIMIANO DA SILVA</t>
   </si>
   <si>
@@ -1254,6 +1251,12 @@
   </si>
   <si>
     <t>MARCIO DE OLIVEIRA JORGE</t>
+  </si>
+  <si>
+    <t>ACT7A03</t>
+  </si>
+  <si>
+    <t>MOTORISTA TROCADO</t>
   </si>
 </sst>
 </file>
@@ -2343,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3256,13 +3259,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="106" t="s">
-        <v>392</v>
+        <v>256</v>
       </c>
       <c r="B65" s="106" t="s">
         <v>365</v>
       </c>
       <c r="C65" s="106" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D65" s="90" t="s">
         <v>241</v>
@@ -3276,10 +3279,10 @@
         <v>365</v>
       </c>
       <c r="C66" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="D66" s="90" t="s">
         <v>394</v>
-      </c>
-      <c r="D66" s="90" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3290,7 +3293,7 @@
         <v>365</v>
       </c>
       <c r="C67" s="106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D67" s="90" t="s">
         <v>279</v>
@@ -3298,16 +3301,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="106" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B68" s="106" t="s">
         <v>365</v>
       </c>
       <c r="C68" s="106" t="s">
+        <v>397</v>
+      </c>
+      <c r="D68" s="90" t="s">
         <v>398</v>
-      </c>
-      <c r="D68" s="90" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3318,10 +3321,10 @@
         <v>365</v>
       </c>
       <c r="C69" s="106" t="s">
+        <v>399</v>
+      </c>
+      <c r="D69" s="90" t="s">
         <v>400</v>
-      </c>
-      <c r="D69" s="90" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3332,7 +3335,7 @@
         <v>365</v>
       </c>
       <c r="C70" s="106" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D70" s="90" t="s">
         <v>207</v>
@@ -3346,7 +3349,7 @@
         <v>365</v>
       </c>
       <c r="C71" s="106" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D71" s="90" t="s">
         <v>202</v>
@@ -3360,10 +3363,38 @@
         <v>365</v>
       </c>
       <c r="C72" s="106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D72" s="90" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" s="106" t="s">
+        <v>405</v>
+      </c>
+      <c r="D73" s="90" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="C74" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="90" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/FROTA AGREGADOS.XLSX
+++ b/FROTA AGREGADOS.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Documents\Arquivos\Github\073\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FC840B-4FE2-4E0C-B5E3-BD754DCA7FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C7C3BD-720C-4848-A90F-C00537D02B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FRACIONADO" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="409">
   <si>
     <t>PLACA</t>
   </si>
@@ -1202,9 +1202,6 @@
     <t>PUJ4F40</t>
   </si>
   <si>
-    <t>DANIEL BORGES DOS SANTOS</t>
-  </si>
-  <si>
     <t>AXX1C73</t>
   </si>
   <si>
@@ -1256,7 +1253,19 @@
     <t>ACT7A03</t>
   </si>
   <si>
-    <t>MOTORISTA TROCADO</t>
+    <t>AUB8I31 </t>
+  </si>
+  <si>
+    <t>CELSO APARECIDO DA ROCHA</t>
+  </si>
+  <si>
+    <t>DIEGO VALDOMIRO</t>
+  </si>
+  <si>
+    <t>OYT0H45</t>
+  </si>
+  <si>
+    <t>EMERSON FERREIRA DE ANDRADE</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1941,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -2033,6 +2042,16 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2346,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2377,1027 +2396,1047 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>361</v>
+        <v>59</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="106" t="s">
-        <v>333</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>361</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C3" s="106" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>333</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="106" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>361</v>
+        <v>80</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="106" t="s">
-        <v>361</v>
+        <v>77</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="106" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" s="106" t="s">
-        <v>361</v>
+        <v>96</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>336</v>
+        <v>97</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>335</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="106" t="s">
-        <v>337</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>361</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>337</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="106" t="s">
-        <v>152</v>
+        <v>70</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="106" t="s">
-        <v>339</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>361</v>
+        <v>83</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>339</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="106" t="s">
-        <v>340</v>
-      </c>
-      <c r="B10" s="106" t="s">
-        <v>361</v>
+        <v>86</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>361</v>
+        <v>90</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>341</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="106" t="s">
-        <v>362</v>
+        <v>93</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="106" t="s">
-        <v>362</v>
+        <v>346</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>46</v>
+        <v>347</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>45</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>362</v>
+        <v>348</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C14" s="106" t="s">
-        <v>35</v>
+        <v>349</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>34</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="106" t="s">
-        <v>362</v>
+        <v>350</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>363</v>
       </c>
       <c r="C15" s="106" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="D15" s="90" t="s">
-        <v>53</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="106" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="C16" s="106" t="s">
-        <v>343</v>
+        <v>27</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="106" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C17" s="106" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="D17" s="90" t="s">
-        <v>38</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="107" t="s">
-        <v>363</v>
+        <v>225</v>
+      </c>
+      <c r="B18" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>61</v>
+        <v>368</v>
       </c>
       <c r="D18" s="90" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="107" t="s">
-        <v>363</v>
+        <v>329</v>
+      </c>
+      <c r="B19" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>75</v>
+        <v>369</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>363</v>
+        <v>330</v>
+      </c>
+      <c r="B20" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="D20" s="90" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="107" t="s">
-        <v>363</v>
+        <v>305</v>
+      </c>
+      <c r="B21" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="107" t="s">
-        <v>363</v>
+        <v>300</v>
+      </c>
+      <c r="B22" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>97</v>
+        <v>373</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="107" t="s">
-        <v>363</v>
+        <v>141</v>
+      </c>
+      <c r="B23" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C23" s="106" t="s">
-        <v>68</v>
+        <v>374</v>
       </c>
       <c r="D23" s="90" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="107" t="s">
-        <v>363</v>
+        <v>375</v>
+      </c>
+      <c r="B24" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>71</v>
+        <v>376</v>
       </c>
       <c r="D24" s="90" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="107" t="s">
-        <v>363</v>
+        <v>253</v>
+      </c>
+      <c r="B25" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C25" s="106" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="D25" s="90" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="107" t="s">
-        <v>363</v>
+        <v>378</v>
+      </c>
+      <c r="B26" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>87</v>
+        <v>379</v>
       </c>
       <c r="D26" s="90" t="s">
-        <v>86</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="107" t="s">
-        <v>363</v>
+        <v>266</v>
+      </c>
+      <c r="B27" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C27" s="106" t="s">
-        <v>91</v>
+        <v>381</v>
       </c>
       <c r="D27" s="90" t="s">
-        <v>90</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="107" t="s">
-        <v>363</v>
+        <v>331</v>
+      </c>
+      <c r="B28" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C28" s="106" t="s">
-        <v>94</v>
+        <v>383</v>
       </c>
       <c r="D28" s="90" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>363</v>
+        <v>212</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="D29" s="90" t="s">
-        <v>346</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="106" t="s">
-        <v>348</v>
-      </c>
-      <c r="B30" s="107" t="s">
-        <v>363</v>
+        <v>5</v>
+      </c>
+      <c r="B30" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>349</v>
+        <v>140</v>
       </c>
       <c r="D30" s="90" t="s">
-        <v>348</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="106" t="s">
-        <v>350</v>
-      </c>
-      <c r="B31" s="107" t="s">
-        <v>363</v>
+        <v>273</v>
+      </c>
+      <c r="B31" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="C31" s="106" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="D31" s="90" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="106" t="s">
-        <v>119</v>
+        <v>386</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>139</v>
+        <v>405</v>
       </c>
       <c r="D32" s="90" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="106" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="B33" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>107</v>
+        <v>388</v>
       </c>
       <c r="D33" s="90" t="s">
-        <v>352</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="80" t="s">
-        <v>128</v>
+      <c r="A34" s="106" t="s">
+        <v>230</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>364</v>
-      </c>
-      <c r="C34" s="80" t="s">
-        <v>181</v>
+        <v>365</v>
+      </c>
+      <c r="C34" s="106" t="s">
+        <v>406</v>
       </c>
       <c r="D34" s="90" t="s">
-        <v>128</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="106" t="s">
-        <v>103</v>
+        <v>389</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="D35" s="90" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="106" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="B36" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C36" s="106" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
       <c r="D36" s="90" t="s">
-        <v>354</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="106" t="s">
-        <v>355</v>
+        <v>196</v>
       </c>
       <c r="B37" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C37" s="106" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="D37" s="90" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="106" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
       <c r="B38" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C38" s="106" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="D38" s="90" t="s">
-        <v>357</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="106" t="s">
-        <v>124</v>
+        <v>395</v>
       </c>
       <c r="B39" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C39" s="106" t="s">
-        <v>125</v>
+        <v>396</v>
       </c>
       <c r="D39" s="90" t="s">
-        <v>124</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="80" t="s">
-        <v>113</v>
+      <c r="A40" s="106" t="s">
+        <v>194</v>
       </c>
       <c r="B40" s="106" t="s">
-        <v>364</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>114</v>
+        <v>365</v>
+      </c>
+      <c r="C40" s="106" t="s">
+        <v>398</v>
       </c>
       <c r="D40" s="90" t="s">
-        <v>113</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="106" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B41" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" s="106" t="s">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="D41" s="90" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="106" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="B42" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C42" s="106" t="s">
-        <v>132</v>
+        <v>401</v>
       </c>
       <c r="D42" s="90" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="106" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B43" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C43" s="106" t="s">
-        <v>110</v>
+        <v>402</v>
       </c>
       <c r="D43" s="90" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="106" t="s">
-        <v>127</v>
+        <v>407</v>
       </c>
       <c r="B44" s="106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C44" s="106" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="D44" s="90" t="s">
-        <v>127</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="106" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="B45" s="106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C45" s="106" t="s">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="D45" s="90" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="106" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="B46" s="106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C46" s="106" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="D46" s="90" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="106" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B47" s="106" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C47" s="106" t="s">
-        <v>366</v>
+        <v>35</v>
       </c>
       <c r="D47" s="90" t="s">
-        <v>367</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="106" t="s">
-        <v>225</v>
+        <v>53</v>
       </c>
       <c r="B48" s="106" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C48" s="106" t="s">
-        <v>368</v>
+        <v>54</v>
       </c>
       <c r="D48" s="90" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="106" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B49" s="106" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C49" s="106" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="D49" s="90" t="s">
-        <v>193</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="106" t="s">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="B50" s="106" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C50" s="106" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="D50" s="90" t="s">
-        <v>371</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="106" t="s">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C51" s="106" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="D51" s="90" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="106" t="s">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="B52" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C52" s="106" t="s">
-        <v>373</v>
+        <v>24</v>
       </c>
       <c r="D52" s="90" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="106" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C53" s="106" t="s">
-        <v>374</v>
+        <v>39</v>
       </c>
       <c r="D53" s="90" t="s">
-        <v>204</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="106" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="B54" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C54" s="106" t="s">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="D54" s="90" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="106" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="B55" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C55" s="106" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="D55" s="90" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="106" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="B56" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C56" s="106" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="D56" s="90" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="106" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="B57" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C57" s="106" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="D57" s="90" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="106" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B58" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C58" s="106" t="s">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="D58" s="90" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="106" t="s">
-        <v>212</v>
+        <v>340</v>
       </c>
       <c r="B59" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C59" s="106" t="s">
-        <v>384</v>
+        <v>181</v>
       </c>
       <c r="D59" s="90" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="106" t="s">
-        <v>5</v>
+        <v>341</v>
       </c>
       <c r="B60" s="106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C60" s="106" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D60" s="90" t="s">
-        <v>203</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="106" t="s">
-        <v>273</v>
+        <v>119</v>
       </c>
       <c r="B61" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C61" s="106" t="s">
-        <v>385</v>
+        <v>139</v>
       </c>
       <c r="D61" s="90" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="106" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B62" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C62" s="106" t="s">
-        <v>387</v>
+        <v>107</v>
       </c>
       <c r="D62" s="90" t="s">
-        <v>211</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="106" t="s">
-        <v>388</v>
+      <c r="A63" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="B63" s="106" t="s">
-        <v>365</v>
-      </c>
-      <c r="C63" s="106" t="s">
-        <v>389</v>
+        <v>364</v>
+      </c>
+      <c r="C63" s="80" t="s">
+        <v>181</v>
       </c>
       <c r="D63" s="90" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="106" t="s">
-        <v>390</v>
+        <v>103</v>
       </c>
       <c r="B64" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C64" s="106" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="D64" s="90" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="106" t="s">
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="B65" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C65" s="106" t="s">
-        <v>392</v>
+        <v>185</v>
       </c>
       <c r="D65" s="90" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="106" t="s">
-        <v>196</v>
+        <v>355</v>
       </c>
       <c r="B66" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C66" s="106" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="D66" s="90" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="106" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
       <c r="B67" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C67" s="106" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="D67" s="90" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="106" t="s">
-        <v>396</v>
+        <v>124</v>
       </c>
       <c r="B68" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C68" s="106" t="s">
-        <v>397</v>
+        <v>125</v>
       </c>
       <c r="D68" s="90" t="s">
-        <v>398</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="106" t="s">
-        <v>194</v>
+      <c r="A69" s="80" t="s">
+        <v>113</v>
       </c>
       <c r="B69" s="106" t="s">
-        <v>365</v>
-      </c>
-      <c r="C69" s="106" t="s">
-        <v>399</v>
+        <v>364</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="D69" s="90" t="s">
-        <v>400</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="106" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B70" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C70" s="106" t="s">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="D70" s="90" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="106" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="B71" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C71" s="106" t="s">
-        <v>402</v>
+        <v>132</v>
       </c>
       <c r="D71" s="90" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="106" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="B72" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C72" s="106" t="s">
-        <v>403</v>
+        <v>110</v>
       </c>
       <c r="D72" s="90" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="106" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="B73" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C73" s="106" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="D73" s="90" t="s">
-        <v>404</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="106" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B74" s="106" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C74" s="106" t="s">
-        <v>42</v>
+        <v>360</v>
       </c>
       <c r="D74" s="90" t="s">
-        <v>41</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="C75" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="90" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
+    <sortCondition ref="B2:B75"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/FROTA AGREGADOS.XLSX
+++ b/FROTA AGREGADOS.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Documents\Arquivos\Github\073\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C7C3BD-720C-4848-A90F-C00537D02B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79545ED-D006-43C7-92BD-CCDA6EC54C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="408">
   <si>
     <t>PLACA</t>
   </si>
@@ -1251,9 +1251,6 @@
   </si>
   <si>
     <t>ACT7A03</t>
-  </si>
-  <si>
-    <t>AUB8I31 </t>
   </si>
   <si>
     <t>CELSO APARECIDO DA ROCHA</t>
@@ -2368,7 +2365,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A12" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2822,7 +2819,7 @@
         <v>365</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D32" s="90" t="s">
         <v>211</v>
@@ -2850,7 +2847,7 @@
         <v>365</v>
       </c>
       <c r="C34" s="106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D34" s="90" t="s">
         <v>403</v>
@@ -2872,7 +2869,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="106" t="s">
-        <v>404</v>
+        <v>256</v>
       </c>
       <c r="B36" s="106" t="s">
         <v>365</v>
@@ -2984,13 +2981,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="106" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B44" s="106" t="s">
         <v>365</v>
       </c>
       <c r="C44" s="106" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D44" s="90" t="s">
         <v>380</v>

--- a/FROTA AGREGADOS.XLSX
+++ b/FROTA AGREGADOS.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodobras_Foods\Documents\Arquivos\Github\073\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79545ED-D006-43C7-92BD-CCDA6EC54C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BC738A-05AB-4F12-8EA8-57C79DD1A30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="411">
   <si>
     <t>PLACA</t>
   </si>
@@ -1263,6 +1263,15 @@
   </si>
   <si>
     <t>EMERSON FERREIRA DE ANDRADE</t>
+  </si>
+  <si>
+    <t>THIAGO DELLA VECHIA</t>
+  </si>
+  <si>
+    <t>HFF8B10</t>
+  </si>
+  <si>
+    <t>RONALDO ORLOWSKI</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1947,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2362,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3427,12 +3446,39 @@
         <v>116</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C76" s="106" t="s">
+        <v>408</v>
+      </c>
+      <c r="D76" s="90"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B77" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="C77" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="D77" s="90"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
     <sortCondition ref="B2:B75"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  <conditionalFormatting sqref="A1:A75 A78:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A77">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4609,35 +4655,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="timePeriod" dxfId="8" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="9" priority="2" timePeriod="today">
       <formula>FLOOR(J1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="7" priority="3" timePeriod="tomorrow">
+    <cfRule type="timePeriod" dxfId="8" priority="3" timePeriod="tomorrow">
       <formula>FLOOR(J1,1)=TODAY()+1</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="6" priority="4" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="7" priority="4" timePeriod="today">
       <formula>FLOOR(J1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="5" priority="5" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="6" priority="5" timePeriod="yesterday">
       <formula>FLOOR(J1,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J29">
-    <cfRule type="timePeriod" dxfId="4" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="today">
       <formula>FLOOR(J26,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="3" priority="7" timePeriod="tomorrow">
+    <cfRule type="timePeriod" dxfId="4" priority="7" timePeriod="tomorrow">
       <formula>FLOOR(J26,1)=TODAY()+1</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="2" priority="8" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="3" priority="8" timePeriod="today">
       <formula>FLOOR(J26,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="9" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="2" priority="9" timePeriod="yesterday">
       <formula>FLOOR(J26,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(L1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(L1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
   </conditionalFormatting>
